--- a/UnitedHealthCare/Data/UHCdata.xlsx
+++ b/UnitedHealthCare/Data/UHCdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff69e32c0f3f0dc8/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruf\Desktop\Selenium_group_2\TDDFramework_WEM_Winter_2020\UnitedHealthCare\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC104837511C7DDC5BDE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{67BC451C-067F-4872-8D52-2A9EDEC5EE1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA7C0AC-8280-4F15-8A88-B0842CA50950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3156" yWindow="1164" windowWidth="19884" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>Voldamort</t>
+    <t>arisha</t>
   </si>
   <si>
-    <t>HarryPotter</t>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,6 +364,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
